--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1D9540-4568-420E-91B6-3A27BB8435DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2F17D2-DEBD-4FDB-88DC-8ECCBA13A062}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -465,9 +465,6 @@
     <t>rollBackToBaselineVersion</t>
   </si>
   <si>
-    <t>7.143.113..NA.01-01-01</t>
-  </si>
-  <si>
     <t>wait time</t>
   </si>
   <si>
@@ -889,6 +886,9 @@
   </si>
   <si>
     <t>Not Available</t>
+  </si>
+  <si>
+    <t>23.218.94.2.NA.01-01-01</t>
   </si>
 </sst>
 </file>
@@ -930,7 +930,7 @@
       <name val="Calibiri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -952,18 +952,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,7 +1063,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1098,6 +1086,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1137,11 +1127,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1482,7 +1468,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>94</v>
@@ -1511,7 +1497,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1525,22 +1511,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="14.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" ht="14.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="14.25">
       <c r="A3" s="10"/>
@@ -1568,76 +1554,76 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -1654,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EA4E71-0B53-4881-A15A-C454293CD34C}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1671,38 +1657,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
+      <c r="A2" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="18" t="s">
@@ -1724,7 +1710,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>3</v>
@@ -1732,7 +1718,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>6</v>
@@ -1754,7 +1740,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>10</v>
@@ -1776,7 +1762,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>11</v>
@@ -1798,7 +1784,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>12</v>
@@ -1818,7 +1804,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -1840,7 +1826,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>14</v>
@@ -1860,7 +1846,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>15</v>
@@ -1882,7 +1868,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>16</v>
@@ -1902,7 +1888,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -1924,7 +1910,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>89</v>
@@ -1944,7 +1930,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>26</v>
@@ -1966,7 +1952,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>26</v>
@@ -1978,17 +1964,17 @@
         <v>31</v>
       </c>
       <c r="E16" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>27</v>
@@ -2003,20 +1989,20 @@
         <v>142</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>143</v>
+        <v>284</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>31</v>
@@ -2032,7 +2018,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>27</v>
@@ -2052,7 +2038,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>28</v>
@@ -2074,7 +2060,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>29</v>
@@ -2096,7 +2082,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>36</v>
@@ -2116,7 +2102,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>37</v>
@@ -2138,7 +2124,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>37</v>
@@ -2150,7 +2136,7 @@
         <v>108</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -2158,7 +2144,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>51</v>
@@ -2170,7 +2156,7 @@
         <v>139</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -2178,19 +2164,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -2198,7 +2184,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>51</v>
@@ -2218,7 +2204,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>52</v>
@@ -2240,7 +2226,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>53</v>
@@ -2260,7 +2246,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>59</v>
@@ -2282,7 +2268,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>60</v>
@@ -2302,7 +2288,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>61</v>
@@ -2324,7 +2310,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>90</v>
@@ -2344,7 +2330,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>91</v>
@@ -2364,7 +2350,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>92</v>
@@ -2386,7 +2372,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>93</v>
@@ -2398,7 +2384,7 @@
         <v>50</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -2406,7 +2392,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>95</v>
@@ -2426,7 +2412,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>92</v>
@@ -2448,7 +2434,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>96</v>
@@ -2468,7 +2454,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>96</v>
@@ -2490,7 +2476,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>97</v>
@@ -2510,7 +2496,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>98</v>
@@ -2522,7 +2508,7 @@
         <v>124</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -2530,7 +2516,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>99</v>
@@ -2552,7 +2538,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>100</v>
@@ -2564,7 +2550,7 @@
         <v>31</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2585,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F162030-4240-4061-B605-62E03F55BA7B}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2599,38 +2585,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
+      <c r="A2" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
@@ -2652,7 +2638,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>3</v>
@@ -2660,7 +2646,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>6</v>
@@ -2682,7 +2668,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>10</v>
@@ -2704,7 +2690,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>11</v>
@@ -2726,7 +2712,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>12</v>
@@ -2746,7 +2732,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -2768,7 +2754,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>14</v>
@@ -2788,7 +2774,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>15</v>
@@ -2810,7 +2796,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>16</v>
@@ -2830,7 +2816,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -2852,7 +2838,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>89</v>
@@ -2872,7 +2858,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>26</v>
@@ -2894,7 +2880,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>26</v>
@@ -2906,17 +2892,17 @@
         <v>31</v>
       </c>
       <c r="E16" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>27</v>
@@ -2931,14 +2917,14 @@
         <v>142</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>143</v>
+        <v>284</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>27</v>
@@ -2958,7 +2944,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>28</v>
@@ -2980,7 +2966,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>29</v>
@@ -3002,7 +2988,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>36</v>
@@ -3022,7 +3008,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>37</v>
@@ -3044,7 +3030,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>51</v>
@@ -3056,7 +3042,7 @@
         <v>107</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -3064,7 +3050,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>52</v>
@@ -3076,7 +3062,7 @@
         <v>108</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -3084,7 +3070,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>53</v>
@@ -3104,19 +3090,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -3124,7 +3110,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>59</v>
@@ -3144,7 +3130,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>37</v>
@@ -3166,7 +3152,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>60</v>
@@ -3186,7 +3172,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>61</v>
@@ -3206,7 +3192,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>90</v>
@@ -3221,14 +3207,14 @@
         <v>44</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>91</v>
@@ -3243,14 +3229,14 @@
         <v>44</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>92</v>
@@ -3272,7 +3258,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>93</v>
@@ -3294,7 +3280,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>96</v>
@@ -3314,7 +3300,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>96</v>
@@ -3323,7 +3309,7 @@
         <v>126</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>43</v>
@@ -3334,7 +3320,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>97</v>
@@ -3343,20 +3329,20 @@
         <v>127</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>97</v>
@@ -3365,7 +3351,7 @@
         <v>128</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>43</v>
@@ -3376,7 +3362,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>99</v>
@@ -3385,20 +3371,20 @@
         <v>135</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>122</v>
@@ -3418,7 +3404,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>122</v>
@@ -3440,7 +3426,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>123</v>
@@ -3460,7 +3446,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>130</v>
@@ -3482,7 +3468,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>129</v>
@@ -3502,7 +3488,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>129</v>
@@ -3522,7 +3508,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>92</v>
@@ -3544,7 +3530,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>93</v>
@@ -3556,7 +3542,7 @@
         <v>50</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -3564,7 +3550,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>95</v>
@@ -3584,7 +3570,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>92</v>
@@ -3606,7 +3592,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>96</v>
@@ -3626,7 +3612,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>96</v>
@@ -3648,7 +3634,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>97</v>
@@ -3668,7 +3654,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>98</v>
@@ -3680,7 +3666,7 @@
         <v>124</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -3688,7 +3674,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>99</v>
@@ -3710,7 +3696,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>100</v>
@@ -3722,7 +3708,7 @@
         <v>31</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -3742,8 +3728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61013C2-7F35-4D0B-B54C-3015EDB52E25}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3756,41 +3742,42 @@
     <col min="6" max="6" width="31.42578125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="31.42578125" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
+      <c r="A2" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
@@ -3812,15 +3799,15 @@
         <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="33" customFormat="1">
+    <row r="5" spans="1:8">
       <c r="A5" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>6</v>
@@ -3838,9 +3825,9 @@
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8" s="33" customFormat="1">
+    <row r="6" spans="1:8">
       <c r="A6" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>10</v>
@@ -3860,9 +3847,9 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8" s="33" customFormat="1">
+    <row r="7" spans="1:8">
       <c r="A7" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>11</v>
@@ -3876,15 +3863,15 @@
       <c r="E7" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="20">
         <v>5000</v>
       </c>
-      <c r="G7" s="35"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" s="33" customFormat="1">
+    <row r="8" spans="1:8">
       <c r="A8" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>12</v>
@@ -3902,9 +3889,9 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" s="33" customFormat="1">
+    <row r="9" spans="1:8">
       <c r="A9" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>13</v>
@@ -3918,15 +3905,15 @@
       <c r="E9" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="36"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" s="33" customFormat="1">
+    <row r="10" spans="1:8">
       <c r="A10" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>14</v>
@@ -3944,9 +3931,9 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" s="33" customFormat="1">
+    <row r="11" spans="1:8">
       <c r="A11" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>15</v>
@@ -3954,21 +3941,21 @@
       <c r="C11" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" s="33" customFormat="1">
+    <row r="12" spans="1:8">
       <c r="A12" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>16</v>
@@ -3976,7 +3963,7 @@
       <c r="C12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="16" t="s">
@@ -3986,9 +3973,9 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" s="33" customFormat="1">
+    <row r="13" spans="1:8">
       <c r="A13" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>23</v>
@@ -4002,15 +3989,15 @@
       <c r="E13" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" s="33" customFormat="1">
+    <row r="14" spans="1:8">
       <c r="A14" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>89</v>
@@ -4028,9 +4015,9 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" s="33" customFormat="1">
+    <row r="15" spans="1:8">
       <c r="A15" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>26</v>
@@ -4044,15 +4031,15 @@
       <c r="E15" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="36"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8" s="33" customFormat="1">
+    <row r="16" spans="1:8">
       <c r="A16" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>27</v>
@@ -4066,21 +4053,21 @@
       <c r="E16" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="36"/>
+      <c r="F16" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="G16" s="21"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8" s="33" customFormat="1">
+    <row r="17" spans="1:8">
       <c r="A17" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>31</v>
@@ -4088,15 +4075,15 @@
       <c r="E17" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="21">
         <v>5000</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8" s="33" customFormat="1">
+    <row r="18" spans="1:8">
       <c r="A18" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>27</v>
@@ -4114,9 +4101,9 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:8" s="33" customFormat="1">
+    <row r="19" spans="1:8">
       <c r="A19" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>28</v>
@@ -4131,14 +4118,14 @@
         <v>44</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
     </row>
-    <row r="20" spans="1:8" s="33" customFormat="1">
+    <row r="20" spans="1:8">
       <c r="A20" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>29</v>
@@ -4158,9 +4145,9 @@
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
     </row>
-    <row r="21" spans="1:8" s="33" customFormat="1">
+    <row r="21" spans="1:8">
       <c r="A21" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -4178,9 +4165,9 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
     </row>
-    <row r="22" spans="1:8" s="33" customFormat="1">
+    <row r="22" spans="1:8">
       <c r="A22" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -4194,15 +4181,15 @@
       <c r="E22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="21">
         <v>3000</v>
       </c>
-      <c r="G22" s="36"/>
+      <c r="G22" s="21"/>
       <c r="H22" s="16"/>
     </row>
-    <row r="23" spans="1:8" s="33" customFormat="1">
+    <row r="23" spans="1:8">
       <c r="A23" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>37</v>
@@ -4214,15 +4201,15 @@
         <v>108</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+        <v>147</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" s="33" customFormat="1">
+    <row r="24" spans="1:8">
       <c r="A24" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>51</v>
@@ -4234,35 +4221,35 @@
         <v>139</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+        <v>147</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" s="33" customFormat="1">
+    <row r="25" spans="1:8">
       <c r="A25" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>147</v>
-      </c>
       <c r="E25" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
+        <v>148</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" s="33" customFormat="1">
+    <row r="26" spans="1:8">
       <c r="A26" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>51</v>
@@ -4280,9 +4267,9 @@
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
     </row>
-    <row r="27" spans="1:8" s="33" customFormat="1">
+    <row r="27" spans="1:8">
       <c r="A27" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>52</v>
@@ -4296,15 +4283,15 @@
       <c r="E27" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="21">
         <v>3000</v>
       </c>
-      <c r="G27" s="36"/>
+      <c r="G27" s="21"/>
       <c r="H27" s="16"/>
     </row>
-    <row r="28" spans="1:8" s="34" customFormat="1">
+    <row r="28" spans="1:8">
       <c r="A28" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>53</v>
@@ -4322,9 +4309,9 @@
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
     </row>
-    <row r="29" spans="1:8" s="33" customFormat="1">
+    <row r="29" spans="1:8">
       <c r="A29" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>59</v>
@@ -4338,37 +4325,37 @@
       <c r="E29" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="21">
         <v>8000</v>
       </c>
-      <c r="G29" s="36"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="E30" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="F30" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="F30" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="G30" s="36"/>
+      <c r="G30" s="21"/>
       <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>61</v>
@@ -4382,55 +4369,55 @@
       <c r="E31" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="21">
         <v>8000</v>
       </c>
-      <c r="G31" s="36"/>
+      <c r="G31" s="21"/>
       <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>90</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>276</v>
-      </c>
       <c r="E32" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>278</v>
-      </c>
       <c r="E33" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
       <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>92</v>
@@ -4444,15 +4431,15 @@
       <c r="E34" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="21">
         <v>3000</v>
       </c>
-      <c r="G34" s="36"/>
+      <c r="G34" s="21"/>
       <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>93</v>
@@ -4466,13 +4453,13 @@
       <c r="E35" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
       <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>94</v>
@@ -4486,15 +4473,15 @@
       <c r="E36" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="21">
         <v>3000</v>
       </c>
-      <c r="G36" s="36"/>
+      <c r="G36" s="21"/>
       <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>95</v>
@@ -4508,13 +4495,13 @@
       <c r="E37" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
       <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>96</v>
@@ -4528,13 +4515,13 @@
       <c r="E38" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
       <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>97</v>
@@ -4548,15 +4535,15 @@
       <c r="E39" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="21">
         <v>20000</v>
       </c>
-      <c r="G39" s="36"/>
+      <c r="G39" s="21"/>
       <c r="H39" s="16"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>98</v>
@@ -4568,15 +4555,15 @@
         <v>50</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
+        <v>266</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
       <c r="H40" s="16"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>99</v>
@@ -4590,13 +4577,13 @@
       <c r="E41" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
       <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>100</v>
@@ -4610,15 +4597,15 @@
       <c r="E42" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F42" s="36">
+      <c r="F42" s="21">
         <v>10000</v>
       </c>
-      <c r="G42" s="36"/>
+      <c r="G42" s="21"/>
       <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>122</v>
@@ -4632,13 +4619,13 @@
       <c r="E43" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
       <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>123</v>
@@ -4652,15 +4639,15 @@
       <c r="E44" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="36">
+      <c r="F44" s="21">
         <v>10000</v>
       </c>
-      <c r="G44" s="36"/>
+      <c r="G44" s="21"/>
       <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>129</v>
@@ -4674,16 +4661,16 @@
       <c r="E45" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
       <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>87</v>
@@ -4692,15 +4679,15 @@
         <v>124</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
+        <v>266</v>
+      </c>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
       <c r="H46" s="16"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>130</v>
@@ -4714,18 +4701,18 @@
       <c r="E47" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47" s="21">
         <v>30000</v>
       </c>
-      <c r="G47" s="36"/>
+      <c r="G47" s="21"/>
       <c r="H47" s="16"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>88</v>
@@ -4734,10 +4721,10 @@
         <v>31</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
+        <v>227</v>
+      </c>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
       <c r="H48" s="16"/>
     </row>
   </sheetData>
@@ -4756,7 +4743,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:I21"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4771,36 +4758,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
@@ -4822,7 +4809,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>3</v>
@@ -4830,7 +4817,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -4852,7 +4839,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -4874,7 +4861,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -4896,7 +4883,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -4916,7 +4903,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -4938,7 +4925,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
@@ -4958,7 +4945,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
@@ -4980,7 +4967,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>16</v>
@@ -4992,7 +4979,7 @@
         <v>31</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
@@ -5002,7 +4989,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>23</v>
@@ -5024,16 +5011,16 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>43</v>
@@ -5044,38 +5031,38 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>43</v>
@@ -5086,16 +5073,16 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>43</v>
@@ -5106,19 +5093,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -5126,7 +5113,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>89</v>
@@ -5146,7 +5133,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>26</v>
@@ -5168,7 +5155,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>26</v>
@@ -5180,17 +5167,17 @@
         <v>31</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>27</v>
@@ -5205,20 +5192,20 @@
         <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>284</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>31</v>
@@ -5234,7 +5221,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>27</v>
@@ -5254,7 +5241,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>28</v>
@@ -5269,14 +5256,14 @@
         <v>44</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>29</v>
@@ -5291,14 +5278,14 @@
         <v>44</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
@@ -5318,7 +5305,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>37</v>
@@ -5340,7 +5327,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>51</v>
@@ -5352,7 +5339,7 @@
         <v>108</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -5360,7 +5347,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>52</v>
@@ -5372,7 +5359,7 @@
         <v>139</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -5380,19 +5367,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="E31" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -5400,16 +5387,16 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>43</v>
@@ -5420,41 +5407,41 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -5462,29 +5449,29 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>91</v>
@@ -5504,7 +5491,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>37</v>
@@ -5526,7 +5513,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>60</v>
@@ -5546,7 +5533,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>61</v>
@@ -5566,7 +5553,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>90</v>
@@ -5581,14 +5568,14 @@
         <v>44</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>91</v>
@@ -5603,14 +5590,14 @@
         <v>44</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>92</v>
@@ -5632,7 +5619,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>93</v>
@@ -5654,7 +5641,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>96</v>
@@ -5674,7 +5661,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>96</v>
@@ -5683,7 +5670,7 @@
         <v>126</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>43</v>
@@ -5694,7 +5681,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>97</v>
@@ -5703,20 +5690,20 @@
         <v>127</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>97</v>
@@ -5725,7 +5712,7 @@
         <v>128</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>43</v>
@@ -5736,7 +5723,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>99</v>
@@ -5745,20 +5732,20 @@
         <v>135</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>122</v>
@@ -5778,13 +5765,13 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>31</v>
@@ -5800,13 +5787,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>46</v>
@@ -5820,31 +5807,31 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>129</v>
@@ -5864,7 +5851,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>129</v>
@@ -5884,7 +5871,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>92</v>
@@ -5906,7 +5893,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>93</v>
@@ -5918,7 +5905,7 @@
         <v>50</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -5926,7 +5913,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>96</v>
@@ -5948,7 +5935,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>98</v>
@@ -5960,7 +5947,7 @@
         <v>124</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -5968,7 +5955,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>99</v>
@@ -5990,13 +5977,13 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>68</v>
@@ -6005,38 +5992,38 @@
         <v>69</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="F61" s="3">
         <v>123458</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>100</v>
@@ -6048,7 +6035,7 @@
         <v>31</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -6086,36 +6073,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
@@ -6137,7 +6124,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>3</v>
@@ -6145,7 +6132,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -6167,7 +6154,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -6189,7 +6176,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -6211,38 +6198,38 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>43</v>
@@ -6253,16 +6240,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>43</v>
@@ -6273,38 +6260,38 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>43</v>
@@ -6315,16 +6302,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>43</v>
@@ -6335,7 +6322,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>16</v>
@@ -6355,7 +6342,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>23</v>
@@ -6377,38 +6364,38 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>43</v>
@@ -6419,7 +6406,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>11</v>
@@ -6441,19 +6428,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F19" s="3">
         <v>3</v>
@@ -6463,19 +6450,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="7"/>
@@ -6483,19 +6470,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F21" s="7">
         <v>2</v>
@@ -6505,19 +6492,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -6525,19 +6512,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F23" s="7">
         <v>1</v>
@@ -6547,16 +6534,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>43</v>
@@ -6567,19 +6554,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -6587,19 +6574,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -6607,16 +6594,16 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>43</v>
@@ -6627,19 +6614,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F28" s="7">
         <v>2</v>
@@ -6649,19 +6636,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -6669,38 +6656,38 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>43</v>
@@ -6711,19 +6698,19 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>31</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -6731,38 +6718,38 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>43</v>
@@ -6773,16 +6760,16 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>43</v>
@@ -6793,13 +6780,13 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>31</v>
@@ -6815,19 +6802,19 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -6835,13 +6822,13 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>31</v>
@@ -6857,41 +6844,41 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -6899,16 +6886,16 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>43</v>
@@ -6919,19 +6906,19 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="7"/>
@@ -6939,41 +6926,41 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -7010,36 +6997,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
@@ -7065,7 +7052,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>82</v>
@@ -7082,7 +7069,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>85</v>
@@ -7099,7 +7086,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>82</v>
@@ -7108,7 +7095,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>86</v>
@@ -7116,7 +7103,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>85</v>
@@ -7133,16 +7120,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>86</v>
@@ -7150,19 +7137,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7193,7 +7180,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7201,7 +7188,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2F17D2-DEBD-4FDB-88DC-8ECCBA13A062}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3BCE6A-6F26-4D65-ACCD-2DB08400D9FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="286">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -889,6 +889,9 @@
   </si>
   <si>
     <t>23.218.94.2.NA.01-01-01</t>
+  </si>
+  <si>
+    <t>PegaGadget2Ifr</t>
   </si>
 </sst>
 </file>
@@ -930,7 +933,7 @@
       <name val="Calibiri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -952,6 +955,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,7 +1072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1088,6 +1097,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1127,7 +1137,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1496,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1511,22 +1521,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="14.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" ht="14.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="14.25">
       <c r="A3" s="10"/>
@@ -1563,7 +1573,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -1578,7 +1588,7 @@
         <v>101</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -1593,7 +1603,7 @@
         <v>184</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -1640,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EA4E71-0B53-4881-A15A-C454293CD34C}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1657,38 +1667,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="18" t="s">
@@ -2403,8 +2413,8 @@
       <c r="D37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>43</v>
+      <c r="E37" s="36" t="s">
+        <v>266</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -2445,8 +2455,8 @@
       <c r="D39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>43</v>
+      <c r="E39" s="36" t="s">
+        <v>266</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -2572,7 +2582,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E16" sqref="E16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2585,38 +2595,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
@@ -3561,8 +3571,8 @@
       <c r="D48" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>43</v>
+      <c r="E48" s="36" t="s">
+        <v>266</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -3603,8 +3613,8 @@
       <c r="D50" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>43</v>
+      <c r="E50" s="36" t="s">
+        <v>266</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -3726,10 +3736,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61013C2-7F35-4D0B-B54C-3015EDB52E25}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3742,42 +3752,42 @@
     <col min="6" max="6" width="31.42578125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="31.42578125" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="35"/>
+    <col min="9" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
@@ -4042,19 +4052,19 @@
         <v>281</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>284</v>
+      <c r="E16" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="16"/>
@@ -4067,16 +4077,16 @@
         <v>27</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="21">
-        <v>5000</v>
+        <v>142</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="16"/>
@@ -4089,16 +4099,18 @@
         <v>27</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="F18" s="21">
+        <v>5000</v>
+      </c>
+      <c r="G18" s="21"/>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8">
@@ -4106,20 +4118,18 @@
         <v>281</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>269</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
     </row>
@@ -4128,19 +4138,19 @@
         <v>281</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>65</v>
+        <v>269</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -4150,18 +4160,20 @@
         <v>281</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="16"/>
+        <v>44</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
     </row>
@@ -4170,21 +4182,19 @@
         <v>281</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="21">
-        <v>3000</v>
-      </c>
-      <c r="G22" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8">
@@ -4195,15 +4205,17 @@
         <v>37</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F23" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="F23" s="21">
+        <v>3000</v>
+      </c>
       <c r="G23" s="21"/>
       <c r="H23" s="16"/>
     </row>
@@ -4212,13 +4224,13 @@
         <v>281</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>147</v>
@@ -4235,13 +4247,13 @@
         <v>51</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -4255,16 +4267,16 @@
         <v>51</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+        <v>148</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
       <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8">
@@ -4272,21 +4284,19 @@
         <v>281</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="21">
-        <v>3000</v>
-      </c>
-      <c r="G27" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
       <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8">
@@ -4294,19 +4304,21 @@
         <v>281</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="F28" s="21">
+        <v>3000</v>
+      </c>
+      <c r="G28" s="21"/>
       <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8">
@@ -4314,21 +4326,19 @@
         <v>281</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="21">
-        <v>8000</v>
-      </c>
-      <c r="G29" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
       <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:8">
@@ -4336,19 +4346,19 @@
         <v>281</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>270</v>
+        <v>54</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>271</v>
+        <v>31</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>273</v>
+        <v>55</v>
+      </c>
+      <c r="F30" s="21">
+        <v>8000</v>
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="16"/>
@@ -4358,19 +4368,19 @@
         <v>281</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>54</v>
+        <v>270</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="21">
-        <v>8000</v>
+        <v>272</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>273</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="16"/>
@@ -4380,18 +4390,20 @@
         <v>281</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>274</v>
+        <v>54</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="F32" s="21">
+        <v>8000</v>
+      </c>
       <c r="G32" s="21"/>
       <c r="H32" s="16"/>
     </row>
@@ -4400,13 +4412,13 @@
         <v>281</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>43</v>
@@ -4420,20 +4432,18 @@
         <v>281</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>54</v>
+        <v>276</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>31</v>
+        <v>277</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="21">
-        <v>3000</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="H34" s="16"/>
     </row>
@@ -4442,18 +4452,20 @@
         <v>281</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="F35" s="21">
+        <v>3000</v>
+      </c>
       <c r="G35" s="21"/>
       <c r="H35" s="16"/>
     </row>
@@ -4462,20 +4474,18 @@
         <v>281</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="21">
-        <v>3000</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F36" s="21"/>
       <c r="G36" s="21"/>
       <c r="H36" s="16"/>
     </row>
@@ -4484,18 +4494,20 @@
         <v>281</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="F37" s="21">
+        <v>3000</v>
+      </c>
       <c r="G37" s="21"/>
       <c r="H37" s="16"/>
     </row>
@@ -4504,13 +4516,13 @@
         <v>281</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>43</v>
@@ -4524,20 +4536,18 @@
         <v>281</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="21">
-        <v>20000</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F39" s="21"/>
       <c r="G39" s="21"/>
       <c r="H39" s="16"/>
     </row>
@@ -4546,18 +4556,20 @@
         <v>281</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="F40" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="F40" s="21">
+        <v>20000</v>
+      </c>
       <c r="G40" s="21"/>
       <c r="H40" s="16"/>
     </row>
@@ -4566,16 +4578,16 @@
         <v>281</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>43</v>
+        <v>266</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -4586,20 +4598,18 @@
         <v>281</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="21">
-        <v>10000</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" s="21"/>
       <c r="G42" s="21"/>
       <c r="H42" s="16"/>
     </row>
@@ -4608,18 +4618,20 @@
         <v>281</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="F43" s="21">
+        <v>10000</v>
+      </c>
       <c r="G43" s="21"/>
       <c r="H43" s="16"/>
     </row>
@@ -4628,20 +4640,18 @@
         <v>281</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="21">
-        <v>10000</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="F44" s="21"/>
       <c r="G44" s="21"/>
       <c r="H44" s="16"/>
     </row>
@@ -4650,18 +4660,20 @@
         <v>281</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="F45" s="21">
+        <v>10000</v>
+      </c>
       <c r="G45" s="21"/>
       <c r="H45" s="16"/>
     </row>
@@ -4670,16 +4682,16 @@
         <v>281</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>278</v>
+        <v>129</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
@@ -4690,20 +4702,18 @@
         <v>281</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>130</v>
+        <v>278</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" s="21">
-        <v>30000</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="F47" s="21"/>
       <c r="G47" s="21"/>
       <c r="H47" s="16"/>
     </row>
@@ -4712,20 +4722,42 @@
         <v>281</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>279</v>
+        <v>130</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F48" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="F48" s="21">
+        <v>30000</v>
+      </c>
       <c r="G48" s="21"/>
       <c r="H48" s="16"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4742,8 +4774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C8C304-D672-42E3-8009-BB544F384D0E}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4758,36 +4790,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
@@ -5170,7 +5202,7 @@
         <v>198</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="3"/>
@@ -6073,36 +6105,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
@@ -6997,36 +7029,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3BCE6A-6F26-4D65-ACCD-2DB08400D9FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8477B9-B660-4478-965D-1C32BB43AD9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1098,6 +1098,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1137,7 +1138,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1507,7 +1507,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1521,22 +1521,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="14.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" ht="14.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="14.25">
       <c r="A3" s="10"/>
@@ -1573,7 +1573,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -1588,7 +1588,7 @@
         <v>101</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -1603,7 +1603,7 @@
         <v>184</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -1618,7 +1618,7 @@
         <v>282</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -1667,38 +1667,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="18" t="s">
@@ -2413,7 +2413,7 @@
       <c r="D37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="23" t="s">
         <v>266</v>
       </c>
       <c r="F37" s="3"/>
@@ -2455,7 +2455,7 @@
       <c r="D39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="23" t="s">
         <v>266</v>
       </c>
       <c r="F39" s="3"/>
@@ -2595,38 +2595,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
@@ -3571,7 +3571,7 @@
       <c r="D48" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="23" t="s">
         <v>266</v>
       </c>
       <c r="F48" s="3"/>
@@ -3613,7 +3613,7 @@
       <c r="D50" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="36" t="s">
+      <c r="E50" s="23" t="s">
         <v>266</v>
       </c>
       <c r="F50" s="3"/>
@@ -3756,38 +3756,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
@@ -4606,7 +4606,7 @@
       <c r="D42" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="23" t="s">
         <v>266</v>
       </c>
       <c r="F42" s="21"/>
@@ -4648,7 +4648,7 @@
       <c r="D44" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="23" t="s">
         <v>266</v>
       </c>
       <c r="F44" s="21"/>
@@ -4790,36 +4790,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
@@ -6105,36 +6105,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
@@ -7029,36 +7029,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8477B9-B660-4478-965D-1C32BB43AD9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF254F7-357C-499B-A90D-CF8D5F70E2D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1507,7 +1507,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1650,7 +1650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EA4E71-0B53-4881-A15A-C454293CD34C}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -2581,7 +2581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F162030-4240-4061-B605-62E03F55BA7B}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16:F16"/>
     </sheetView>
   </sheetViews>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF254F7-357C-499B-A90D-CF8D5F70E2D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C71871-3C07-4582-A741-83D3A270AC71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -1506,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1588,7 +1588,7 @@
         <v>101</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -1603,7 +1603,7 @@
         <v>184</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -1650,7 +1650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EA4E71-0B53-4881-A15A-C454293CD34C}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -3738,7 +3738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61013C2-7F35-4D0B-B54C-3015EDB52E25}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -4774,7 +4774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C8C304-D672-42E3-8009-BB544F384D0E}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="297">
   <si>
     <t xml:space="preserve">TS1_Regr_01</t>
   </si>
@@ -75,36 +75,39 @@
     <t xml:space="preserve">Validating the downloaded csv</t>
   </si>
   <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS1_Regr_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VerifyCSVForNewVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure the CSV version created without Email, and with IB has ib , but no Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS2_Regr_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VerifyEventAPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cases by integrating the API calls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS1_Regr_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VerifyDeleteOffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario to validate the deleted offer is not present in the CSV</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">TS1_Regr_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VerifyCSVForNewVersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure the CSV version created without Email, and with IB has ib , but no Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS2_Regr_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VerifyEventAPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cases by integrating the API calls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS1_Regr_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VerifyDeleteOffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenario to validate the deleted offer is not present in the CSV</t>
-  </si>
-  <si>
     <t xml:space="preserve">TS3_Regr_01</t>
   </si>
   <si>
@@ -114,9 +117,6 @@
     <t xml:space="preserve">Executing the real time spine API</t>
   </si>
   <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
     <t xml:space="preserve">Below is the template to add new test cases to the suite.</t>
   </si>
   <si>
@@ -234,195 +234,198 @@
     <t xml:space="preserve">rollBackToBaselineVersion</t>
   </si>
   <si>
+    <t xml:space="preserve">28.240.1.2.NA.01-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clcik on new version button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btnCreatenewVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter description text box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">txtShortDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enterText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sophie_Auto_328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter notes on text box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">txtVersionNotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created as part of automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clcik on next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imgBtnNext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chkEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checkboxSelect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select SMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chkSMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deselect Microsite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chkMicrosite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checkboxUncheck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chkCallCentre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chkDirectMail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chkInCall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Generate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imgGeneratebtn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Submit notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btnSubmitVersionNotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on generate engine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btnRunEngine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RunOrResumeEngineclick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the link Click to Check data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lnkClickToCheckData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csvDownloadclick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the link Click to download the csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lnkDownloadCSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait to download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the downloaded CSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ValidateBatchDecisionOutputCSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resume the run </t>
+  </si>
+  <si>
+    <t xml:space="preserve">btnResumeRun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closing the browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quitBrowser</t>
+  </si>
+  <si>
     <t xml:space="preserve">29.356.254.2.NA.01-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">wait time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clcik on new version button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnCreatenewVersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter description text box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">txtShortDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enterText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sophie_Auto_328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter notes on text box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">txtVersionNotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created as part of automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clcik on next</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imgBtnNext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkEmail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checkboxSelect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkSMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deselect Microsite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkMicrosite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checkboxUncheck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkCallCentre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkDirectMail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkInCall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Generate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imgGeneratebtn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Submit notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnSubmitVersionNotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on generate engine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnRunEngine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RunOrResumeEngineclick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click the link Click to Check data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnkClickToCheckData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csvDownloadclick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click the link Click to download the csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnkDownloadCSV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait to download</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate the downloaded CSV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ValidateBatchDecisionOutputCSV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resume the run </t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnResumeRun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Closing the browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quitBrowser</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sophie_NoEmail_ButIB_329</t>
   </si>
   <si>
@@ -549,7 +552,7 @@
     <t xml:space="preserve">hiddenClick</t>
   </si>
   <si>
-    <t xml:space="preserve">test_5</t>
+    <t xml:space="preserve">TVPkgUpsellDiscount</t>
   </si>
   <si>
     <t xml:space="preserve">select radio button</t>
@@ -568,6 +571,24 @@
   </si>
   <si>
     <t xml:space="preserve">TS_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_45</t>
   </si>
   <si>
     <t xml:space="preserve">closeBrowser</t>
@@ -951,6 +972,7 @@
       <color rgb="FF000000"/>
       <name val="Monospace"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1086,7 +1108,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1145,6 +1167,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1271,9 +1297,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>76680</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1287,7 +1313,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="571320"/>
-          <a:ext cx="13735800" cy="1304280"/>
+          <a:ext cx="13735440" cy="1303920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1310,7 +1336,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="B5:B49 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1358,7 +1384,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="B5:B49 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1469,22 +1495,22 @@
         <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1510,8 +1536,8 @@
   </sheetPr>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="1" sqref="B5:B49 E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1842,7 +1868,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>0</v>
       </c>
@@ -1858,14 +1884,14 @@
       <c r="E17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="15" t="s">
         <v>68</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1887,7 +1913,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1907,7 +1933,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1929,7 +1955,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1951,7 +1977,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1971,7 +1997,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1993,7 +2019,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2013,7 +2039,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2033,7 +2059,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2053,7 +2079,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2073,7 +2099,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2093,7 +2119,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2113,7 +2139,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2133,7 +2159,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2155,7 +2181,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2175,7 +2201,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2197,7 +2223,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2217,7 +2243,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2239,7 +2265,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2259,7 +2285,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2279,7 +2305,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2301,7 +2327,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2321,7 +2347,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2333,7 +2359,7 @@
       <c r="D40" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="17" t="s">
         <v>116</v>
       </c>
       <c r="F40" s="1"/>
@@ -2341,7 +2367,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2353,7 +2379,7 @@
       <c r="D41" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="17" t="s">
         <v>116</v>
       </c>
       <c r="F41" s="1"/>
@@ -2361,7 +2387,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2383,7 +2409,7 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2403,7 +2429,7 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2423,7 +2449,7 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2445,7 +2471,7 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2488,7 +2514,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="1" sqref="B5:B49 F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2835,7 +2861,7 @@
         <v>67</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -2877,7 +2903,7 @@
         <v>75</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="13"/>
@@ -2954,7 +2980,7 @@
         <v>88</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>97</v>
@@ -2994,13 +3020,13 @@
         <v>96</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -3014,7 +3040,7 @@
         <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>92</v>
@@ -3034,7 +3060,7 @@
         <v>98</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>83</v>
@@ -3076,7 +3102,7 @@
         <v>100</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>83</v>
@@ -3096,10 +3122,10 @@
         <v>101</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>49</v>
@@ -3116,16 +3142,16 @@
         <v>102</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -3138,16 +3164,16 @@
         <v>105</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -3160,18 +3186,18 @@
         <v>108</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="17" t="n">
+      <c r="F33" s="18" t="n">
         <v>43525</v>
       </c>
-      <c r="G33" s="17"/>
+      <c r="G33" s="18"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3182,18 +3208,18 @@
         <v>109</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="17" t="n">
+      <c r="F34" s="18" t="n">
         <v>45743</v>
       </c>
-      <c r="G34" s="17"/>
+      <c r="G34" s="18"/>
       <c r="H34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3204,10 +3230,10 @@
         <v>117</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>49</v>
@@ -3224,10 +3250,10 @@
         <v>117</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>49</v>
@@ -3244,16 +3270,16 @@
         <v>121</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="13"/>
@@ -3266,10 +3292,10 @@
         <v>121</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>49</v>
@@ -3286,16 +3312,16 @@
         <v>127</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="13"/>
@@ -3305,13 +3331,13 @@
         <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>49</v>
@@ -3325,10 +3351,10 @@
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>38</v>
@@ -3347,10 +3373,10 @@
         <v>16</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>83</v>
@@ -3367,7 +3393,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>44</v>
@@ -3389,7 +3415,7 @@
         <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>103</v>
@@ -3409,10 +3435,10 @@
         <v>16</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>107</v>
@@ -3479,7 +3505,7 @@
       <c r="D48" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="17" t="s">
         <v>116</v>
       </c>
       <c r="F48" s="1"/>
@@ -3499,7 +3525,7 @@
       <c r="D49" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="17" t="s">
         <v>116</v>
       </c>
       <c r="F49" s="1"/>
@@ -3631,10 +3657,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3709,7 +3735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3729,7 +3755,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3751,7 +3777,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -3767,13 +3793,13 @@
       <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="19" t="n">
         <v>5000</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -3793,7 +3819,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -3810,12 +3836,12 @@
         <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -3835,7 +3861,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -3852,12 +3878,12 @@
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3877,7 +3903,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3894,12 +3920,12 @@
         <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -3919,7 +3945,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -3936,17 +3962,17 @@
         <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>44</v>
@@ -3963,12 +3989,12 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>66</v>
@@ -3979,18 +4005,18 @@
       <c r="E17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="15" t="s">
         <v>68</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>69</v>
@@ -4007,12 +4033,12 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>70</v>
@@ -4027,124 +4053,126 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>169</v>
+        <v>45</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>8000</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>3000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>3000</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>87</v>
@@ -4153,186 +4181,186 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>3000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>3000</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <v>8000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>173</v>
+        <v>45</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>8000</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>8000</v>
+        <v>173</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>8000</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>49</v>
@@ -4341,102 +4369,102 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>3000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>3000</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="1" t="n">
-        <v>3000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>3000</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>49</v>
@@ -4445,80 +4473,80 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="1" t="n">
-        <v>20000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>20000</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>116</v>
@@ -4527,109 +4555,129 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="1" t="n">
-        <v>10000</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>10000</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" s="1" t="n">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F48" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>30000</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4655,7 +4703,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="1" sqref="B5:B49 E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4671,7 +4719,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4787,10 +4835,10 @@
       <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="18"/>
+      <c r="F7" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="19"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4830,7 +4878,7 @@
         <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -4872,7 +4920,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4891,7 +4939,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>2</v>
@@ -4916,7 +4964,7 @@
         <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4929,10 +4977,10 @@
         <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>49</v>
@@ -4949,7 +4997,7 @@
         <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>38</v>
@@ -4971,10 +5019,10 @@
         <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>49</v>
@@ -4991,10 +5039,10 @@
         <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>49</v>
@@ -5011,13 +5059,13 @@
         <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5060,7 +5108,7 @@
         <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -5082,7 +5130,7 @@
         <v>63</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -5104,7 +5152,7 @@
         <v>67</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -5168,7 +5216,7 @@
         <v>75</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -5190,7 +5238,7 @@
         <v>75</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -5305,10 +5353,10 @@
         <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>49</v>
@@ -5325,16 +5373,16 @@
         <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -5347,13 +5395,13 @@
         <v>101</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -5367,16 +5415,16 @@
         <v>102</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -5431,7 +5479,7 @@
         <v>100</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>83</v>
@@ -5451,10 +5499,10 @@
         <v>101</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>49</v>
@@ -5471,16 +5519,16 @@
         <v>102</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
@@ -5493,16 +5541,16 @@
         <v>105</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
@@ -5515,18 +5563,18 @@
         <v>108</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="17" t="n">
+      <c r="F42" s="18" t="n">
         <v>43526</v>
       </c>
-      <c r="G42" s="17"/>
+      <c r="G42" s="18"/>
       <c r="H42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5537,18 +5585,18 @@
         <v>109</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F43" s="17" t="n">
+      <c r="F43" s="18" t="n">
         <v>45743</v>
       </c>
-      <c r="G43" s="17"/>
+      <c r="G43" s="18"/>
       <c r="H43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5559,10 +5607,10 @@
         <v>117</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>49</v>
@@ -5579,10 +5627,10 @@
         <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>49</v>
@@ -5599,16 +5647,16 @@
         <v>121</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="13"/>
@@ -5621,10 +5669,10 @@
         <v>121</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>49</v>
@@ -5641,16 +5689,16 @@
         <v>127</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="13"/>
@@ -5660,13 +5708,13 @@
         <v>19</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>49</v>
@@ -5680,7 +5728,7 @@
         <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>69</v>
@@ -5702,10 +5750,10 @@
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>83</v>
@@ -5722,22 +5770,22 @@
         <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H52" s="13"/>
     </row>
@@ -5745,20 +5793,20 @@
       <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C53" s="19" t="s">
+      <c r="B53" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
       <c r="H53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5766,10 +5814,10 @@
         <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>107</v>
@@ -5895,7 +5943,7 @@
         <v>127</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>3</v>
@@ -5904,7 +5952,7 @@
         <v>4</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="13"/>
@@ -5917,19 +5965,19 @@
         <v>127</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F61" s="1" t="n">
         <v>123458</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H61" s="13"/>
     </row>
@@ -5977,7 +6025,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
+      <selection pane="topLeft" activeCell="F38" activeCellId="1" sqref="B5:B49 F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5995,7 +6043,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -6053,7 +6101,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>36</v>
@@ -6075,7 +6123,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>40</v>
@@ -6097,7 +6145,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>43</v>
@@ -6111,46 +6159,46 @@
       <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="18"/>
+      <c r="F7" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="19"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>49</v>
@@ -6161,16 +6209,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>49</v>
@@ -6181,13 +6229,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>38</v>
@@ -6196,23 +6244,23 @@
         <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>49</v>
@@ -6223,16 +6271,16 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>49</v>
@@ -6243,7 +6291,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>55</v>
@@ -6263,7 +6311,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>58</v>
@@ -6278,45 +6326,45 @@
         <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>230</v>
+        <v>236</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>237</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>49</v>
@@ -6327,7 +6375,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>43</v>
@@ -6341,27 +6389,27 @@
       <c r="E18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>182</v>
+      <c r="F18" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>3</v>
@@ -6371,19 +6419,19 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -6391,19 +6439,19 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>2</v>
@@ -6413,19 +6461,19 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -6433,19 +6481,19 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>1</v>
@@ -6455,16 +6503,16 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>49</v>
@@ -6475,19 +6523,19 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -6495,19 +6543,19 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -6515,16 +6563,16 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>49</v>
@@ -6535,19 +6583,19 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>2</v>
@@ -6557,19 +6605,19 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -6577,13 +6625,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>38</v>
@@ -6592,23 +6640,23 @@
         <v>63</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>49</v>
@@ -6619,19 +6667,19 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D32" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -6639,38 +6687,38 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D33" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>49</v>
@@ -6681,16 +6729,16 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>49</v>
@@ -6701,13 +6749,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>38</v>
@@ -6723,19 +6771,19 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -6743,13 +6791,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>38</v>
@@ -6765,13 +6813,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>38</v>
@@ -6780,26 +6828,26 @@
         <v>63</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -6807,16 +6855,16 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>49</v>
@@ -6827,19 +6875,19 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -6847,13 +6895,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>38</v>
@@ -6862,26 +6910,26 @@
         <v>63</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
@@ -6911,7 +6959,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="1" sqref="B5:B49 G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6928,55 +6976,55 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -6985,102 +7033,102 @@
       <c r="A5" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>278</v>
+      <c r="B5" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>278</v>
+      <c r="B6" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>278</v>
+      <c r="B7" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>278</v>
+      <c r="B8" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>278</v>
+      <c r="B9" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>287</v>
+        <v>292</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -7107,7 +7155,7 @@
   <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="1" sqref="B5:B49 D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7122,7 +7170,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7130,7 +7178,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
